--- a/Document/更新日记/美术/【Titan】脚本更新记录_陈德汉.xlsx
+++ b/Document/更新日记/美术/【Titan】脚本更新记录_陈德汉.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25035" windowHeight="11070"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="25035" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="77">
   <si>
     <t>更新日期</t>
   </si>
@@ -245,6 +245,146 @@
   </si>
   <si>
     <t>moba_003.unity，新烘焙贴图，树叶、地表贴图、材质文件</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>moba_003场景红BUFF树叶材质球上传</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>moba_003_hongbuff01_05\moba_003_hongbuff01_05.mat</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月04号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>moba_003场景调雾效</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月02号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DestinedHero View 本命英雄场景调整</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DestinedHero View.unity</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月16号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>主城灯光调整加烘焙</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cest01.unity,材质、天空盒Mat加烘焙贴图文件</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月17号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cest01.unity,材质文件、烘焙贴图文件</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月18号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>主城新烘焙，光效调整添加</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月22号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>主城灯光调整加烘焙</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>moba_003场景灯光调整加烘焙</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月24号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>8月30号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>moba_003场景加柔光，替换基地围墙贴图</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cest01.unity,材质文件、烘焙贴图文件</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>moba_003.unity,基地围墙贴图</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cest01.unity,材质文件、烘焙贴图文件</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>主城新烘焙加柔光</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>10月30号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>moba_003场景光影气氛调整</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>moba_003.unity</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cest01.unity,材质文件、烘焙贴图文件</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>moba_003.unity,模型材质文件、天空盒材质文件</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月25号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>moba_003场景雾调整</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>moba_003.unity</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月25号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>主城场景光、雾、天空盒、地表贴图、中心平台贴图调整</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cest01.unity，天空盒贴图、地表贴图、中心平台贴图</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -316,7 +456,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -333,28 +473,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -389,18 +514,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -704,19 +817,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="52.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="35.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="37" style="2" customWidth="1"/>
     <col min="5" max="7" width="9" style="2"/>
-    <col min="8" max="8" width="76.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="89.625" style="2" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -1153,7 +1266,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>9</v>
@@ -1208,135 +1321,461 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7"/>
-      <c r="B16" s="11"/>
-      <c r="D16" s="8"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="12"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7"/>
-      <c r="B18" s="11"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7"/>
-      <c r="B19" s="11"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="11"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
-      <c r="B23" s="11"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="7"/>
-      <c r="B24" s="11"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="7"/>
-      <c r="B25" s="11"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="7"/>
-      <c r="B26" s="11"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="7"/>
-      <c r="B27" s="11"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="11"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="10"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1">
+        <v>7</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="10" t="str">
+        <f t="shared" ref="H16" si="13">CONCATENATE(F16,"","【",E16,"】[",G16,"]:",C16,"。(修改文件:",D16,")")</f>
+        <v>陈德汉【全版本】[内部知晓]:moba_003场景红BUFF树叶材质球上传。(修改文件:moba_003_hongbuff01_05\moba_003_hongbuff01_05.mat)</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="10" t="str">
+        <f t="shared" ref="H17" si="14">CONCATENATE(F17,"","【",E17,"】[",G17,"]:",C17,"。(修改文件:",D17,")")</f>
+        <v>陈德汉【全版本】[内部知晓]:moba_003场景调雾效。(修改文件:moba_003.unity)</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="10" t="str">
+        <f t="shared" ref="H18" si="15">CONCATENATE(F18,"","【",E18,"】[",G18,"]:",C18,"。(修改文件:",D18,")")</f>
+        <v>陈德汉【全版本】[内部知晓]:DestinedHero View 本命英雄场景调整。(修改文件:DestinedHero View.unity)</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="10" t="str">
+        <f t="shared" ref="H19" si="16">CONCATENATE(F19,"","【",E19,"】[",G19,"]:",C19,"。(修改文件:",D19,")")</f>
+        <v>陈德汉【全版本】[内部知晓]:主城灯光调整加烘焙。(修改文件:Cest01.unity,材质、天空盒Mat加烘焙贴图文件)</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="10" t="str">
+        <f t="shared" ref="H20" si="17">CONCATENATE(F20,"","【",E20,"】[",G20,"]:",C20,"。(修改文件:",D20,")")</f>
+        <v>陈德汉【全版本】[内部知晓]:主城灯光调整加烘焙。(修改文件:Cest01.unity,材质文件、烘焙贴图文件)</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="1">
+        <v>7</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="10" t="str">
+        <f t="shared" ref="H21" si="18">CONCATENATE(F21,"","【",E21,"】[",G21,"]:",C21,"。(修改文件:",D21,")")</f>
+        <v>陈德汉【全版本】[内部知晓]:主城新烘焙，光效调整添加。(修改文件:Cest01.unity,材质文件、烘焙贴图文件)</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="1">
+        <v>7</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="10" t="str">
+        <f t="shared" ref="H22" si="19">CONCATENATE(F22,"","【",E22,"】[",G22,"]:",C22,"。(修改文件:",D22,")")</f>
+        <v>陈德汉【全版本】[内部知晓]:moba_003场景灯光调整加烘焙。(修改文件:Cest01.unity,材质文件、烘焙贴图文件)</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="1">
+        <v>7</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="10" t="str">
+        <f t="shared" ref="H23" si="20">CONCATENATE(F23,"","【",E23,"】[",G23,"]:",C23,"。(修改文件:",D23,")")</f>
+        <v>陈德汉【全版本】[内部知晓]:moba_003场景灯光调整加烘焙。(修改文件:Cest01.unity,材质文件、烘焙贴图文件)</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="1">
+        <v>7</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="10" t="str">
+        <f t="shared" ref="H24" si="21">CONCATENATE(F24,"","【",E24,"】[",G24,"]:",C24,"。(修改文件:",D24,")")</f>
+        <v>陈德汉【全版本】[内部知晓]:moba_003场景加柔光，替换基地围墙贴图。(修改文件:moba_003.unity,基地围墙贴图)</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="1">
+        <v>7</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="10" t="str">
+        <f t="shared" ref="H25" si="22">CONCATENATE(F25,"","【",E25,"】[",G25,"]:",C25,"。(修改文件:",D25,")")</f>
+        <v>陈德汉【全版本】[内部知晓]:主城新烘焙加柔光。(修改文件:Cest01.unity,材质文件、烘焙贴图文件)</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="1">
+        <v>7</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="10" t="str">
+        <f t="shared" ref="H26" si="23">CONCATENATE(F26,"","【",E26,"】[",G26,"]:",C26,"。(修改文件:",D26,")")</f>
+        <v>陈德汉【全版本】[内部知晓]:moba_003场景光影气氛调整。(修改文件:moba_003.unity,模型材质文件、天空盒材质文件)</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="1">
+        <v>7</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="10" t="str">
+        <f t="shared" ref="H27" si="24">CONCATENATE(F27,"","【",E27,"】[",G27,"]:",C27,"。(修改文件:",D27,")")</f>
+        <v>陈德汉【全版本】[内部知晓]:moba_003场景雾调整。(修改文件:moba_003.unity)</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="1">
+        <v>7</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="10" t="str">
+        <f t="shared" ref="H28" si="25">CONCATENATE(F28,"","【",E28,"】[",G28,"]:",C28,"。(修改文件:",D28,")")</f>
+        <v>陈德汉【全版本】[内部知晓]:主城场景光、雾、天空盒、地表贴图、中心平台贴图调整。(修改文件:Cest01.unity，天空盒贴图、地表贴图、中心平台贴图)</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="11"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="9"/>
       <c r="H29" s="10"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
-      <c r="B30" s="1"/>
+      <c r="B30" s="11"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="9"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
       <c r="B31" s="1"/>
-      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="9"/>
       <c r="H31" s="10"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
       <c r="B32" s="1"/>
       <c r="D32" s="1"/>
@@ -1393,6 +1832,7 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="1"/>
+      <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="9"/>
@@ -1401,7 +1841,6 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
       <c r="B39" s="1"/>
-      <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="9"/>
@@ -1419,6 +1858,7 @@
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="7"/>
       <c r="B41" s="1"/>
+      <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="9"/>
@@ -1427,7 +1867,6 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
       <c r="B42" s="1"/>
-      <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="9"/>
@@ -1454,6 +1893,7 @@
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
       <c r="B45" s="1"/>
+      <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="9"/>
@@ -1462,7 +1902,6 @@
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
       <c r="B46" s="1"/>
-      <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="9"/>
@@ -1498,6 +1937,7 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
       <c r="B50" s="1"/>
+      <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="9"/>
@@ -1510,6 +1950,14 @@
       <c r="F51" s="1"/>
       <c r="G51" s="9"/>
       <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="7"/>
+      <c r="B52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1520,10 +1968,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1 JC1 SY1 ACU1 AMQ1 AWM1 BGI1 BQE1 CAA1 CJW1 CTS1 DDO1 DNK1 DXG1 EHC1 EQY1 FAU1 FKQ1 FUM1 GEI1 GOE1 GYA1 HHW1 HRS1 IBO1 ILK1 IVG1 JFC1 JOY1 JYU1 KIQ1 KSM1 LCI1 LME1 LWA1 MFW1 MPS1 MZO1 NJK1 NTG1 ODC1 OMY1 OWU1 PGQ1 PQM1 QAI1 QKE1 QUA1 RDW1 RNS1 RXO1 SHK1 SRG1 TBC1 TKY1 TUU1 UEQ1 UOM1 UYI1 VIE1 VSA1 WBW1 WLS1 WVO1">
       <formula1>"内部知晓,新增,修改"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="UYG2:UYG21 VIC2:VIC21 VRY2:VRY21 WBU2:WBU21 WLQ2:WLQ21 E2:E51 WVM2:WVM21 JA2:JA21 SW2:SW21 ACS2:ACS21 AMO2:AMO21 AWK2:AWK21 BGG2:BGG21 BQC2:BQC21 BZY2:BZY21 CJU2:CJU21 CTQ2:CTQ21 DDM2:DDM21 DNI2:DNI21 DXE2:DXE21 EHA2:EHA21 EQW2:EQW21 FAS2:FAS21 FKO2:FKO21 FUK2:FUK21 GEG2:GEG21 GOC2:GOC21 GXY2:GXY21 HHU2:HHU21 HRQ2:HRQ21 IBM2:IBM21 ILI2:ILI21 IVE2:IVE21 JFA2:JFA21 JOW2:JOW21 JYS2:JYS21 KIO2:KIO21 KSK2:KSK21 LCG2:LCG21 LMC2:LMC21 LVY2:LVY21 MFU2:MFU21 MPQ2:MPQ21 MZM2:MZM21 NJI2:NJI21 NTE2:NTE21 ODA2:ODA21 OMW2:OMW21 OWS2:OWS21 PGO2:PGO21 PQK2:PQK21 QAG2:QAG21 QKC2:QKC21 QTY2:QTY21 RDU2:RDU21 RNQ2:RNQ21 RXM2:RXM21 SHI2:SHI21 SRE2:SRE21 TBA2:TBA21 TKW2:TKW21 TUS2:TUS21 UEO2:UEO21 UOK2:UOK21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="VIC2:VIC28 VRY2:VRY28 WBU2:WBU28 WLQ2:WLQ28 WVM2:WVM28 JA2:JA28 SW2:SW28 ACS2:ACS28 AMO2:AMO28 AWK2:AWK28 BGG2:BGG28 BQC2:BQC28 BZY2:BZY28 CJU2:CJU28 CTQ2:CTQ28 DDM2:DDM28 DNI2:DNI28 DXE2:DXE28 EHA2:EHA28 EQW2:EQW28 FAS2:FAS28 FKO2:FKO28 FUK2:FUK28 GEG2:GEG28 GOC2:GOC28 GXY2:GXY28 HHU2:HHU28 HRQ2:HRQ28 IBM2:IBM28 ILI2:ILI28 IVE2:IVE28 JFA2:JFA28 JOW2:JOW28 JYS2:JYS28 KIO2:KIO28 KSK2:KSK28 LCG2:LCG28 LMC2:LMC28 LVY2:LVY28 MFU2:MFU28 MPQ2:MPQ28 MZM2:MZM28 NJI2:NJI28 NTE2:NTE28 ODA2:ODA28 OMW2:OMW28 OWS2:OWS28 PGO2:PGO28 PQK2:PQK28 QAG2:QAG28 QKC2:QKC28 QTY2:QTY28 RDU2:RDU28 RNQ2:RNQ28 RXM2:RXM28 SHI2:SHI28 SRE2:SRE28 TBA2:TBA28 TKW2:TKW28 TUS2:TUS28 UEO2:UEO28 UOK2:UOK28 UYG2:UYG28 E2:E52">
       <formula1>$O$2:$O$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G51 JC2:JC21 SY2:SY21 ACU2:ACU21 AMQ2:AMQ21 AWM2:AWM21 BGI2:BGI21 BQE2:BQE21 CAA2:CAA21 CJW2:CJW21 CTS2:CTS21 DDO2:DDO21 DNK2:DNK21 DXG2:DXG21 EHC2:EHC21 EQY2:EQY21 FAU2:FAU21 FKQ2:FKQ21 FUM2:FUM21 GEI2:GEI21 GOE2:GOE21 GYA2:GYA21 HHW2:HHW21 HRS2:HRS21 IBO2:IBO21 ILK2:ILK21 IVG2:IVG21 JFC2:JFC21 JOY2:JOY21 JYU2:JYU21 KIQ2:KIQ21 KSM2:KSM21 LCI2:LCI21 LME2:LME21 LWA2:LWA21 MFW2:MFW21 MPS2:MPS21 MZO2:MZO21 NJK2:NJK21 NTG2:NTG21 ODC2:ODC21 OMY2:OMY21 OWU2:OWU21 PGQ2:PGQ21 PQM2:PQM21 QAI2:QAI21 QKE2:QKE21 QUA2:QUA21 RDW2:RDW21 RNS2:RNS21 RXO2:RXO21 SHK2:SHK21 SRG2:SRG21 TBC2:TBC21 TKY2:TKY21 TUU2:TUU21 UEQ2:UEQ21 UOM2:UOM21 UYI2:UYI21 VIE2:VIE21 VSA2:VSA21 WBW2:WBW21 WLS2:WLS21 WVO2:WVO21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="JC2:JC28 SY2:SY28 ACU2:ACU28 AMQ2:AMQ28 AWM2:AWM28 BGI2:BGI28 BQE2:BQE28 CAA2:CAA28 CJW2:CJW28 CTS2:CTS28 DDO2:DDO28 DNK2:DNK28 DXG2:DXG28 EHC2:EHC28 EQY2:EQY28 FAU2:FAU28 FKQ2:FKQ28 FUM2:FUM28 GEI2:GEI28 GOE2:GOE28 GYA2:GYA28 HHW2:HHW28 HRS2:HRS28 IBO2:IBO28 ILK2:ILK28 IVG2:IVG28 JFC2:JFC28 JOY2:JOY28 JYU2:JYU28 KIQ2:KIQ28 KSM2:KSM28 LCI2:LCI28 LME2:LME28 LWA2:LWA28 MFW2:MFW28 MPS2:MPS28 MZO2:MZO28 NJK2:NJK28 NTG2:NTG28 ODC2:ODC28 OMY2:OMY28 OWU2:OWU28 PGQ2:PGQ28 PQM2:PQM28 QAI2:QAI28 QKE2:QKE28 QUA2:QUA28 RDW2:RDW28 RNS2:RNS28 RXO2:RXO28 SHK2:SHK28 SRG2:SRG28 TBC2:TBC28 TKY2:TKY28 TUU2:TUU28 UEQ2:UEQ28 UOM2:UOM28 UYI2:UYI28 VIE2:VIE28 VSA2:VSA28 WBW2:WBW28 WLS2:WLS28 WVO2:WVO28 G2:G52">
       <formula1>$Q$2:$Q$8</formula1>
     </dataValidation>
   </dataValidations>
